--- a/2_Экономика/Экономические_показатели_на_50_ед_оборудования.xlsx
+++ b/2_Экономика/Экономические_показатели_на_50_ед_оборудования.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirius\Documents\GitHub\IT-Camp-2025\2_Экономика\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="СВОД НА 50 ДВИГАТЕЛЬ" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Затраты</t>
   </si>
@@ -444,10 +444,7 @@
     <t>622908*4</t>
   </si>
   <si>
-    <t>1) Broadcom MegaRAID 9560‑16i, 8 GB Cache — 104 300 ₽ 2) ИБП DKC Info Rackmount Pro LCD, линейно‑интерактивный, 1500 ВА/1200 Вт, Rack 3U — 46 157 ₽. 3) Серверная стойка 19", 42U, двухрамная, нагрузка до 550 кг, гарантия 5 лет — 17 900 ₽. 4) LR-Link LRES1025PT, Dual‑Port 10 GbE (Intel X550) — 14 294 ₽</t>
-  </si>
-  <si>
-    <t>Broadcom MegaRAID 9560‑16i, 8 GB Cache</t>
+    <t xml:space="preserve"> 2) ИБП DKC Info Rackmount Pro LCD, линейно‑интерактивный, 1500 ВА/1200 Вт, Rack 3U — 46 157 ₽. 3) Серверная стойка 19", 42U, двухрамная, нагрузка до 550 кг, гарантия 5 лет — 17 900 ₽. 4) LR-Link LRES1025PT, Dual‑Port 10 GbE (Intel X550) — 14 294 ₽</t>
   </si>
 </sst>
 </file>
@@ -983,57 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,6 +995,57 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1094,7 +1091,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3037,19 +3033,19 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="69.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="6" width="16.90625" customWidth="1"/>
+    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" ht="15.6">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -3074,10 +3070,10 @@
       <c r="H1" s="65">
         <v>6</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="90" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="84"/>
+      <c r="J1" s="91"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
@@ -3113,10 +3109,10 @@
         <f t="shared" si="0"/>
         <v>202067884.7362487</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="93"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
@@ -3149,8 +3145,8 @@
         <f>H11+H10</f>
         <v>64277931.598043196</v>
       </c>
-      <c r="I3" s="87"/>
-      <c r="J3" s="88"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
@@ -3184,8 +3180,8 @@
         <f>ЭФ1!$B2</f>
         <v>15</v>
       </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="88"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
@@ -3219,8 +3215,8 @@
         <f>ЭФ1!$B3*(1+$L$42)^H1</f>
         <v>802544.33727383544</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
@@ -3254,8 +3250,8 @@
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="88"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="95"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
@@ -3289,8 +3285,8 @@
         <f>ЭФ1!$B5*(1+$L$42)^H1</f>
         <v>847772.41251453792</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="95"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
@@ -3324,8 +3320,8 @@
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
@@ -3359,8 +3355,8 @@
         <f t="shared" si="2"/>
         <v>12.75</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="88"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="95"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
@@ -3394,8 +3390,8 @@
         <f t="shared" si="3"/>
         <v>10232440.300241401</v>
       </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="88"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="95"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
@@ -3429,12 +3425,12 @@
         <f t="shared" ref="H11" si="5">H6*H7*H9</f>
         <v>54045491.297801793</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="88"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="95"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" ht="15.6">
       <c r="A12" s="14" t="s">
         <v>35</v>
       </c>
@@ -3463,8 +3459,8 @@
         <f t="shared" ref="H12" si="7">H16*H15*H17</f>
         <v>113660119.51793939</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="95"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
@@ -3498,8 +3494,8 @@
         <f>ЭФ2!$B2</f>
         <v>136</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="88"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="95"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
@@ -3533,8 +3529,8 @@
         <f>ЭФ2!$B3*(1+$L$42)^H1</f>
         <v>98321.902697179408</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="88"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="95"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
@@ -3568,8 +3564,8 @@
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="95"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
@@ -3603,8 +3599,8 @@
         <f>ЭФ2!$B7*(1+$L$42)^H1</f>
         <v>13371778.766816398</v>
       </c>
-      <c r="I16" s="87"/>
-      <c r="J16" s="88"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
@@ -3638,12 +3634,12 @@
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" ht="15.6">
       <c r="A18" s="14" t="s">
         <v>36</v>
       </c>
@@ -3672,8 +3668,8 @@
         <f t="shared" si="8"/>
         <v>14297643.350548172</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
@@ -3707,8 +3703,8 @@
         <f>ЭФ3!$B2*(1+$L$42)^H1</f>
         <v>10241864.86428952</v>
       </c>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
@@ -3742,8 +3738,8 @@
         <f>ЭФ3!$B3*(1+$L$42)^H1</f>
         <v>5735444.3240021318</v>
       </c>
-      <c r="I20" s="87"/>
-      <c r="J20" s="88"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
@@ -3777,8 +3773,8 @@
         <f>ЭФ3!$B5*(1+$L$42)^H1</f>
         <v>40967.459457158082</v>
       </c>
-      <c r="I21" s="87"/>
-      <c r="J21" s="88"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -3812,12 +3808,12 @@
         <f>ЭФ3!$B6*(1+$L$42)^H1</f>
         <v>1638698.3782863233</v>
       </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="88"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" ht="15.6">
       <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
@@ -3846,8 +3842,8 @@
         <f t="shared" si="9"/>
         <v>9832190.2697179392</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="88"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="95"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
@@ -3881,8 +3877,8 @@
         <f>ЭФ4!$B2</f>
         <v>4</v>
       </c>
-      <c r="I24" s="87"/>
-      <c r="J24" s="88"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
@@ -3916,8 +3912,8 @@
         <f>ЭФ4!$B3</f>
         <v>30</v>
       </c>
-      <c r="I25" s="87"/>
-      <c r="J25" s="88"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
@@ -3951,8 +3947,8 @@
         <f>ЭФ4!$B4*(1+$L$42)^H1</f>
         <v>163869.83782863233</v>
       </c>
-      <c r="I26" s="87"/>
-      <c r="J26" s="88"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
@@ -3986,8 +3982,8 @@
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="I27" s="89"/>
-      <c r="J27" s="90"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="97"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
@@ -4023,10 +4019,10 @@
         <f t="shared" si="10"/>
         <v>13890991.725289527</v>
       </c>
-      <c r="I28" s="93" t="s">
+      <c r="I28" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="94"/>
+      <c r="J28" s="101"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
@@ -4062,12 +4058,12 @@
         <f t="shared" ref="H29" si="12">H41</f>
         <v>0</v>
       </c>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="103"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" ht="15.6">
       <c r="A30" s="9" t="str">
         <f>CAPEX!A2</f>
         <v>Стоиомсть команды для разработки ПО</v>
@@ -4082,12 +4078,12 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="103"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" ht="15.6">
       <c r="A31" s="9" t="str">
         <f>'Стоимость команды'!A2</f>
         <v>Руководитель проекта</v>
@@ -4102,12 +4098,12 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="96"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="15.6">
       <c r="A32" s="9" t="str">
         <f>'Стоимость команды'!A3</f>
         <v>Системный аналитик</v>
@@ -4122,12 +4118,12 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="103"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" ht="15.6">
       <c r="A33" s="9" t="str">
         <f>'Стоимость команды'!A4</f>
         <v>Бизнес аналитик</v>
@@ -4142,12 +4138,12 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="96"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="103"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" ht="15.6">
       <c r="A34" s="9" t="str">
         <f>'Стоимость команды'!A5</f>
         <v>Frontend разработчик</v>
@@ -4162,12 +4158,12 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="96"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="103"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" ht="15.6">
       <c r="A35" s="9" t="str">
         <f>'Стоимость команды'!A6</f>
         <v>Backend разработчик</v>
@@ -4182,12 +4178,12 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="96"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="103"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" ht="15.6">
       <c r="A36" s="9" t="str">
         <f>'Стоимость команды'!A7</f>
         <v>ML разработчик</v>
@@ -4202,12 +4198,12 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
       <c r="H36" s="23"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="96"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="103"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="15.6">
       <c r="A37" s="9" t="str">
         <f>'Стоимость команды'!A8</f>
         <v>UX\UI дизайнер</v>
@@ -4222,12 +4218,12 @@
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="96"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="103"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" ht="15.6">
       <c r="A38" s="9" t="str">
         <f>'Стоимость команды'!A9</f>
         <v>Архитектор</v>
@@ -4242,12 +4238,12 @@
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" ht="15.6">
       <c r="A39" s="9" t="str">
         <f>'Стоимость команды'!A10</f>
         <v>DevOps инженер</v>
@@ -4262,12 +4258,12 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="81"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="88"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" ht="15.6">
       <c r="A40" s="9" t="str">
         <f>CAPEX!A2</f>
         <v>Стоиомсть команды для разработки ПО</v>
@@ -4282,8 +4278,8 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
+      <c r="I40" s="98"/>
+      <c r="J40" s="99"/>
       <c r="K40" s="10" t="s">
         <v>15</v>
       </c>
@@ -4291,7 +4287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" ht="15.6">
       <c r="A41" s="9" t="str">
         <f>CAPEX!A3</f>
         <v>Закупка инфраструктуры и лицензий</v>
@@ -4306,8 +4302,8 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="92"/>
+      <c r="I41" s="98"/>
+      <c r="J41" s="99"/>
       <c r="K41" s="10" t="s">
         <v>15</v>
       </c>
@@ -4315,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" ht="15.6">
       <c r="A42" s="9" t="str">
         <f>CAPEX!A4</f>
         <v>Стоимость токовых датчиков, включая установку на оборудование (на 1 ед.)</v>
@@ -4330,8 +4326,8 @@
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92"/>
+      <c r="I42" s="98"/>
+      <c r="J42" s="99"/>
       <c r="K42" s="10" t="s">
         <v>102</v>
       </c>
@@ -4339,7 +4335,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="15.6">
       <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
@@ -4368,8 +4364,8 @@
         <f t="shared" si="13"/>
         <v>13890991.725289527</v>
       </c>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
       <c r="K43" s="10" t="s">
         <v>17</v>
       </c>
@@ -4407,8 +4403,8 @@
         <f>OPEX!$B$2*(1+$L$42)^H1</f>
         <v>12839791.725289527</v>
       </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="99"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
@@ -4490,8 +4486,8 @@
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="81"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="88"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
@@ -4524,12 +4520,12 @@
         <f t="shared" si="15"/>
         <v>188176893.01095918</v>
       </c>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="15.6">
       <c r="A49" s="12" t="s">
         <v>5</v>
       </c>
@@ -4671,7 +4667,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="15.6">
       <c r="A53" s="6" t="s">
         <v>9</v>
       </c>
@@ -4785,18 +4781,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="41.36328125" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="8" max="8" width="36.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="34" t="s">
         <v>19</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>7557376</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.75">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="35" t="s">
         <v>94</v>
       </c>
@@ -4832,7 +4828,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="38.1" customHeight="1"/>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="34" t="s">
         <v>103</v>
       </c>
@@ -4840,7 +4836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60.75">
+    <row r="7" spans="1:8" ht="60">
       <c r="A7" s="35" t="s">
         <v>108</v>
       </c>
@@ -4851,7 +4847,7 @@
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
     </row>
-    <row r="8" spans="1:8" ht="45.75">
+    <row r="8" spans="1:8" ht="60">
       <c r="A8" s="35" t="s">
         <v>107</v>
       </c>
@@ -4865,11 +4861,6 @@
       </c>
       <c r="B9" s="37" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" customHeight="1">
@@ -4927,15 +4918,15 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" customWidth="1"/>
     <col min="3" max="3" width="91" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" customWidth="1"/>
+    <col min="11" max="11" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="15.6">
       <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
@@ -4965,7 +4956,7 @@
         <f>5000000+945120*3</f>
         <v>7835360</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="81" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="5"/>
@@ -4978,11 +4969,11 @@
       <c r="A3" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="97">
+      <c r="B3" s="80">
         <f>87600*12</f>
         <v>1051200</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="82" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="5"/>
@@ -4995,7 +4986,7 @@
       <c r="A5" s="5"/>
       <c r="F5" s="74"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="15.6">
       <c r="A6" s="77" t="s">
         <v>110</v>
       </c>
@@ -5004,7 +4995,7 @@
       </c>
       <c r="F6" s="75"/>
     </row>
-    <row r="7" spans="1:14" ht="126">
+    <row r="7" spans="1:14" ht="120">
       <c r="A7" s="78" t="s">
         <v>114</v>
       </c>
@@ -5013,7 +5004,7 @@
       </c>
       <c r="C7" s="76"/>
     </row>
-    <row r="8" spans="1:14" ht="31.5">
+    <row r="8" spans="1:14" ht="30">
       <c r="A8" s="78" t="s">
         <v>109</v>
       </c>
@@ -5038,15 +5029,15 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="29" t="s">
         <v>21</v>
       </c>
@@ -5229,13 +5220,13 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="34" t="s">
         <v>40</v>
       </c>
@@ -5243,7 +5234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.75">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="39" t="s">
         <v>116</v>
       </c>
@@ -5267,7 +5258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30.75">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="39" t="s">
         <v>63</v>
       </c>
@@ -5275,7 +5266,7 @@
         <v>517345</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30.75">
+    <row r="6" spans="1:2" ht="30">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -5345,16 +5336,16 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="21.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="7" max="7" width="61.6328125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5">
+    <row r="1" spans="1:8" ht="31.2">
       <c r="A1" s="43" t="s">
         <v>52</v>
       </c>
@@ -5370,7 +5361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="39" t="s">
         <v>99</v>
       </c>
@@ -5382,7 +5373,7 @@
       <c r="A4" s="38"/>
       <c r="B4" s="36"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="34" t="s">
         <v>48</v>
       </c>
@@ -5392,7 +5383,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="30.75">
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="39" t="s">
         <v>47</v>
       </c>
@@ -5455,16 +5446,16 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -5476,7 +5467,7 @@
       </c>
       <c r="C1" s="74"/>
     </row>
-    <row r="2" spans="1:4" ht="30.75">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="35" t="s">
         <v>118</v>
       </c>
@@ -5484,10 +5475,10 @@
         <f>50*125000</f>
         <v>6250000</v>
       </c>
-      <c r="C2" s="100"/>
+      <c r="C2" s="83"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="30.75">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="35" t="s">
         <v>54</v>
       </c>
@@ -5495,13 +5486,13 @@
         <f>50*70000</f>
         <v>3500000</v>
       </c>
-      <c r="C3" s="101"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="35"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="102"/>
+      <c r="C4" s="85"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="35" t="s">
@@ -5511,10 +5502,10 @@
         <f>500*50</f>
         <v>25000</v>
       </c>
-      <c r="C5" s="103"/>
+      <c r="C5" s="86"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="30.75">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="35" t="s">
         <v>55</v>
       </c>
@@ -5522,13 +5513,13 @@
         <f>20000*50</f>
         <v>1000000</v>
       </c>
-      <c r="C6" s="103"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" hidden="1">
       <c r="A7" s="30"/>
       <c r="B7" s="36"/>
-      <c r="C7" s="103"/>
+      <c r="C7" s="86"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="32" t="s">
@@ -5538,7 +5529,7 @@
         <f>B2+B3-B6-B5</f>
         <v>8725000</v>
       </c>
-      <c r="C8" s="103"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
@@ -5628,13 +5619,13 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.6">
       <c r="A1" s="33" t="s">
         <v>40</v>
       </c>
@@ -5642,7 +5633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.75">
+    <row r="2" spans="1:2" ht="30">
       <c r="A2" s="35" t="s">
         <v>57</v>
       </c>
@@ -5650,7 +5641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30.75">
+    <row r="3" spans="1:2" ht="30">
       <c r="A3" s="35" t="s">
         <v>58</v>
       </c>
@@ -5658,7 +5649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.75">
+    <row r="4" spans="1:2" ht="30">
       <c r="A4" s="35" t="s">
         <v>59</v>
       </c>
@@ -5666,7 +5657,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30.75">
+    <row r="5" spans="1:2" ht="30">
       <c r="A5" s="35" t="s">
         <v>60</v>
       </c>
@@ -5678,7 +5669,7 @@
       <c r="A6" s="35"/>
       <c r="B6" s="53"/>
     </row>
-    <row r="7" spans="1:2" ht="30.75">
+    <row r="7" spans="1:2" ht="30">
       <c r="A7" s="49" t="s">
         <v>61</v>
       </c>
@@ -5704,14 +5695,14 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="1" max="1" width="42.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="33" t="s">
         <v>66</v>
       </c>
@@ -5733,7 +5724,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="30" t="s">
         <v>69</v>
       </c>
@@ -5744,7 +5735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30.75">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="30" t="s">
         <v>71</v>
       </c>
@@ -5766,7 +5757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30.75">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6" s="30" t="s">
         <v>75</v>
       </c>
@@ -5777,7 +5768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30.75">
+    <row r="7" spans="1:3" ht="30">
       <c r="A7" s="30" t="s">
         <v>77</v>
       </c>
@@ -5799,7 +5790,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30.75">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="35" t="s">
         <v>81</v>
       </c>
@@ -5808,7 +5799,7 @@
       </c>
       <c r="C9" s="30"/>
     </row>
-    <row r="10" spans="1:3" ht="45.75">
+    <row r="10" spans="1:3" ht="45">
       <c r="A10" s="30" t="s">
         <v>82</v>
       </c>
@@ -5819,7 +5810,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45.75">
+    <row r="11" spans="1:3" ht="45">
       <c r="A11" s="30" t="s">
         <v>84</v>
       </c>
@@ -5830,7 +5821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45.75">
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="30" t="s">
         <v>86</v>
       </c>
@@ -5841,7 +5832,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45.75">
+    <row r="13" spans="1:3" ht="45">
       <c r="A13" s="30" t="s">
         <v>88</v>
       </c>
@@ -5852,7 +5843,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45.75">
+    <row r="14" spans="1:3" ht="45">
       <c r="A14" s="30" t="s">
         <v>90</v>
       </c>

--- a/2_Экономика/Экономические_показатели_на_50_ед_оборудования.xlsx
+++ b/2_Экономика/Экономические_показатели_на_50_ед_оборудования.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sirius\Documents\GitHub\IT-Camp-2025\2_Экономика\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="СВОД НА 50 ДВИГАТЕЛЬ" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="ЭФ4" sheetId="8" r:id="rId8"/>
     <sheet name="Ставка дисконтирования" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -444,7 +444,10 @@
     <t>622908*4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2) ИБП DKC Info Rackmount Pro LCD, линейно‑интерактивный, 1500 ВА/1200 Вт, Rack 3U — 46 157 ₽. 3) Серверная стойка 19", 42U, двухрамная, нагрузка до 550 кг, гарантия 5 лет — 17 900 ₽. 4) LR-Link LRES1025PT, Dual‑Port 10 GbE (Intel X550) — 14 294 ₽</t>
+    <t>1) Broadcom MegaRAID 9560‑16i, 8 GB Cache — 104 300 ₽
+ 2) ИБП DKC Info Rackmount Pro LCD, линейно‑интерактивный, 1500 ВА/1200 Вт, Rack 3U — 46 157 ₽. 
+3) Серверная стойка 19", 42U, двухрамная, нагрузка до 550 кг, гарантия 5 лет — 17 900 ₽.
+ 4) LR-Link LRES1025PT, Dual‑Port 10 GbE (Intel X550) — 14 294 ₽</t>
   </si>
 </sst>
 </file>
@@ -610,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -762,26 +765,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -808,9 +798,6 @@
     <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -848,9 +835,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -902,9 +886,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -967,7 +948,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,14 +967,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1047,7 +1042,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1091,6 +1089,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1189,25 +1188,25 @@
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-48883176</c:v>
+                  <c:v>-52622936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36210950.874827579</c:v>
+                  <c:v>-32668402.126137935</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>115963798.74081883</c:v>
+                  <c:v>-13719979.826526057</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190702982.39927477</c:v>
+                  <c:v>4249405.8969399743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>260737097.54930693</c:v>
+                  <c:v>21270240.44495406</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>326356670.18930066</c:v>
+                  <c:v>37375492.194172248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>387835082.13980138</c:v>
+                  <c:v>52599842.22542128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3029,23 +3028,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="69.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="6" width="16.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="69.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -3067,86 +3066,86 @@
       <c r="G1" s="6">
         <v>5</v>
       </c>
-      <c r="H1" s="65">
+      <c r="H1" s="62">
         <v>6</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="91" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="91"/>
+      <c r="J1" s="92"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <f>SUM(B3:B23)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <f>C3+C12+C18+C23</f>
-        <v>133889989.8565</v>
-      </c>
-      <c r="D2" s="17">
+        <v>55948776.1171</v>
+      </c>
+      <c r="D2" s="16">
         <f t="shared" ref="D2:H2" si="0">D3+D12+D18+D23</f>
-        <v>145377750.98618773</v>
-      </c>
-      <c r="E2" s="17">
+        <v>60749181.107947193</v>
+      </c>
+      <c r="E2" s="16">
         <f t="shared" si="0"/>
-        <v>157851162.02080265</v>
-      </c>
-      <c r="F2" s="17">
+        <v>65961460.847009063</v>
+      </c>
+      <c r="F2" s="16">
         <f t="shared" si="0"/>
-        <v>171394791.72218755</v>
-      </c>
-      <c r="G2" s="17">
+        <v>71620954.187682465</v>
+      </c>
+      <c r="G2" s="16">
         <f t="shared" si="0"/>
-        <v>186100464.85195127</v>
-      </c>
-      <c r="H2" s="17">
+        <v>77766032.056985617</v>
+      </c>
+      <c r="H2" s="16">
         <f t="shared" si="0"/>
-        <v>202067884.7362487</v>
-      </c>
-      <c r="I2" s="92" t="s">
+        <v>84438357.607474998</v>
+      </c>
+      <c r="I2" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="94"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="31.5" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15">
         <f>C11+C10</f>
-        <v>42590496.8565</v>
-      </c>
-      <c r="D3" s="16">
+        <v>16832831.117099997</v>
+      </c>
+      <c r="D3" s="15">
         <f t="shared" ref="D3:F3" si="1">D11+D10</f>
-        <v>46244761.486787707</v>
-      </c>
-      <c r="E3" s="16">
+        <v>18277088.026947182</v>
+      </c>
+      <c r="E3" s="15">
         <f t="shared" si="1"/>
-        <v>50212562.022354104</v>
-      </c>
-      <c r="F3" s="16">
+        <v>19845262.179659251</v>
+      </c>
+      <c r="F3" s="15">
         <f t="shared" si="1"/>
-        <v>54520799.843872093</v>
-      </c>
-      <c r="G3" s="16">
+        <v>21547985.674674023</v>
+      </c>
+      <c r="G3" s="15">
         <f>G11+G10</f>
-        <v>59198684.470476322</v>
-      </c>
-      <c r="H3" s="16">
+        <v>23396802.845561054</v>
+      </c>
+      <c r="H3" s="15">
         <f>H11+H10</f>
-        <v>64277931.598043196</v>
-      </c>
-      <c r="I3" s="94"/>
-      <c r="J3" s="95"/>
+        <v>25404248.529710196</v>
+      </c>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
@@ -3155,33 +3154,33 @@
         <f>ЭФ1!A2</f>
         <v>Среднее количество внеплановых отказов в год на 50 ед. оборудования:</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18">
         <f>ЭФ1!$B2</f>
-        <v>15</v>
-      </c>
-      <c r="D4" s="19">
+        <v>6</v>
+      </c>
+      <c r="D4" s="18">
         <f>ЭФ1!$B2</f>
-        <v>15</v>
-      </c>
-      <c r="E4" s="19">
+        <v>6</v>
+      </c>
+      <c r="E4" s="18">
         <f>ЭФ1!$B2</f>
-        <v>15</v>
-      </c>
-      <c r="F4" s="19">
+        <v>6</v>
+      </c>
+      <c r="F4" s="18">
         <f>ЭФ1!$B2</f>
-        <v>15</v>
-      </c>
-      <c r="G4" s="19">
+        <v>6</v>
+      </c>
+      <c r="G4" s="18">
         <f>ЭФ1!$B2</f>
-        <v>15</v>
-      </c>
-      <c r="H4" s="19">
+        <v>6</v>
+      </c>
+      <c r="H4" s="18">
         <f>ЭФ1!$B2</f>
-        <v>15</v>
-      </c>
-      <c r="I4" s="94"/>
-      <c r="J4" s="95"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
@@ -3190,33 +3189,33 @@
         <f>ЭФ1!A3</f>
         <v>Средняя стоимость одного внепланового ремонта, руб.</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18">
         <f>ЭФ1!$B3*(1+$L$42)^C1</f>
         <v>531765.12100000004</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <f>ЭФ1!$B3*(1+$L$42)^D1</f>
         <v>577390.56838180008</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <f>ЭФ1!$B3*(1+$L$42)^E1</f>
         <v>626930.67914895865</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <f>ЭФ1!$B3*(1+$L$42)^F1</f>
         <v>680721.33141993941</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <f>ЭФ1!$B3*(1+$L$42)^G1</f>
         <v>739127.2216557702</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <f>ЭФ1!$B3*(1+$L$42)^H1</f>
         <v>802544.33727383544</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
@@ -3225,33 +3224,33 @@
         <f>ЭФ1!A4</f>
         <v>Среднее время простоя оборудования после отказа, часов</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18">
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <f>ЭФ1!$B4</f>
         <v>5</v>
       </c>
-      <c r="I6" s="94"/>
-      <c r="J6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="96"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
@@ -3260,33 +3259,33 @@
         <f>ЭФ1!A5</f>
         <v>Стоимость часа простоя одной технологической установки, руб</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18">
         <f>ЭФ1!$B5*(1+$L$42)^C1</f>
-        <v>561733.201</v>
-      </c>
-      <c r="D7" s="19">
+        <v>553758</v>
+      </c>
+      <c r="D7" s="18">
         <f>ЭФ1!$B5*(1+$L$42)^D1</f>
-        <v>609929.90964580013</v>
-      </c>
-      <c r="E7" s="19">
+        <v>601270.43640000012</v>
+      </c>
+      <c r="E7" s="18">
         <f>ЭФ1!$B5*(1+$L$42)^E1</f>
-        <v>662261.89589340985</v>
-      </c>
-      <c r="F7" s="19">
+        <v>652859.43984312017</v>
+      </c>
+      <c r="F7" s="18">
         <f>ЭФ1!$B5*(1+$L$42)^F1</f>
-        <v>719083.96656106447</v>
-      </c>
-      <c r="G7" s="19">
+        <v>708874.77978166007</v>
+      </c>
+      <c r="G7" s="18">
         <f>ЭФ1!$B5*(1+$L$42)^G1</f>
-        <v>780781.37089200388</v>
-      </c>
-      <c r="H7" s="19">
+        <v>769696.23588692653</v>
+      </c>
+      <c r="H7" s="18">
         <f>ЭФ1!$B5*(1+$L$42)^H1</f>
-        <v>847772.41251453792</v>
-      </c>
-      <c r="I7" s="94"/>
-      <c r="J7" s="95"/>
+        <v>835736.17292602488</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
@@ -3295,33 +3294,33 @@
         <f>ЭФ1!A6</f>
         <v>Коэффициент снижения количества внеплановых отказов благодаря раннему прогнозированию</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18">
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <f>ЭФ1!$B6</f>
         <v>0.85</v>
       </c>
-      <c r="I8" s="94"/>
-      <c r="J8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
@@ -3330,33 +3329,33 @@
         <f>ЭФ1!A8</f>
         <v>Количество предотвращенных отказов в год:</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18">
         <f>C4*C8</f>
-        <v>12.75</v>
-      </c>
-      <c r="D9" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D9" s="18">
         <f t="shared" ref="D9:H9" si="2">D4*D8</f>
-        <v>12.75</v>
-      </c>
-      <c r="E9" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E9" s="18">
         <f t="shared" si="2"/>
-        <v>12.75</v>
-      </c>
-      <c r="F9" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F9" s="18">
         <f t="shared" si="2"/>
-        <v>12.75</v>
-      </c>
-      <c r="G9" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G9" s="18">
         <f t="shared" si="2"/>
-        <v>12.75</v>
-      </c>
-      <c r="H9" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H9" s="18">
         <f t="shared" si="2"/>
-        <v>12.75</v>
-      </c>
-      <c r="I9" s="94"/>
-      <c r="J9" s="95"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I9" s="95"/>
+      <c r="J9" s="96"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
@@ -3365,33 +3364,33 @@
         <f>ЭФ1!A9</f>
         <v>Экономия на ремонтах:</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19">
+      <c r="B10" s="17"/>
+      <c r="C10" s="18">
         <f>C5*C9</f>
-        <v>6780005.292750001</v>
-      </c>
-      <c r="D10" s="19">
+        <v>2712002.1170999999</v>
+      </c>
+      <c r="D10" s="18">
         <f t="shared" ref="D10:H10" si="3">D5*D9</f>
-        <v>7361729.746867951</v>
-      </c>
-      <c r="E10" s="19">
+        <v>2944691.8987471801</v>
+      </c>
+      <c r="E10" s="18">
         <f t="shared" si="3"/>
-        <v>7993366.159149223</v>
-      </c>
-      <c r="F10" s="19">
+        <v>3197346.4636596888</v>
+      </c>
+      <c r="F10" s="18">
         <f t="shared" si="3"/>
-        <v>8679196.9756042268</v>
-      </c>
-      <c r="G10" s="19">
+        <v>3471678.7902416908</v>
+      </c>
+      <c r="G10" s="18">
         <f t="shared" si="3"/>
-        <v>9423872.0761110708</v>
-      </c>
-      <c r="H10" s="19">
+        <v>3769548.8304444277</v>
+      </c>
+      <c r="H10" s="18">
         <f t="shared" si="3"/>
-        <v>10232440.300241401</v>
-      </c>
-      <c r="I10" s="94"/>
-      <c r="J10" s="95"/>
+        <v>4092976.1200965606</v>
+      </c>
+      <c r="I10" s="95"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
@@ -3400,67 +3399,67 @@
         <f>ЭФ1!A10</f>
         <v>Экономия от сокращения простоя:</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18">
         <f>C6*C7*C9</f>
-        <v>35810491.563749999</v>
-      </c>
-      <c r="D11" s="19">
+        <v>14120828.999999998</v>
+      </c>
+      <c r="D11" s="18">
         <f t="shared" ref="D11:G11" si="4">D6*D7*D9</f>
-        <v>38883031.739919759</v>
-      </c>
-      <c r="E11" s="19">
+        <v>15332396.128200002</v>
+      </c>
+      <c r="E11" s="18">
         <f t="shared" si="4"/>
-        <v>42219195.863204882</v>
-      </c>
-      <c r="F11" s="19">
+        <v>16647915.715999562</v>
+      </c>
+      <c r="F11" s="18">
         <f t="shared" si="4"/>
-        <v>45841602.868267864</v>
-      </c>
-      <c r="G11" s="19">
+        <v>18076306.884432331</v>
+      </c>
+      <c r="G11" s="18">
         <f t="shared" si="4"/>
-        <v>49774812.394365251</v>
-      </c>
-      <c r="H11" s="19">
+        <v>19627254.015116625</v>
+      </c>
+      <c r="H11" s="18">
         <f t="shared" ref="H11" si="5">H6*H7*H9</f>
-        <v>54045491.297801793</v>
-      </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="95"/>
+        <v>21311272.409613635</v>
+      </c>
+      <c r="I11" s="95"/>
+      <c r="J11" s="96"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="15.6">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:12">
+      <c r="A12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15">
         <f>C16*C15*C17</f>
-        <v>75311088</v>
-      </c>
-      <c r="D12" s="16">
+        <v>27687900.000000004</v>
+      </c>
+      <c r="D12" s="15">
         <f t="shared" ref="D12:G12" si="6">D16*D15*D17</f>
-        <v>81772779.350400016</v>
-      </c>
-      <c r="E12" s="16">
+        <v>30063521.820000008</v>
+      </c>
+      <c r="E12" s="15">
         <f t="shared" si="6"/>
-        <v>88788883.818664342</v>
-      </c>
-      <c r="F12" s="16">
+        <v>32642971.992156006</v>
+      </c>
+      <c r="F12" s="15">
         <f t="shared" si="6"/>
-        <v>96406970.050305769</v>
-      </c>
-      <c r="G12" s="16">
+        <v>35443738.989083</v>
+      </c>
+      <c r="G12" s="15">
         <f t="shared" si="6"/>
-        <v>104678688.08062202</v>
-      </c>
-      <c r="H12" s="16">
+        <v>38484811.794346325</v>
+      </c>
+      <c r="H12" s="15">
         <f t="shared" ref="H12" si="7">H16*H15*H17</f>
-        <v>113660119.51793939</v>
-      </c>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
+        <v>41786808.646301247</v>
+      </c>
+      <c r="I12" s="95"/>
+      <c r="J12" s="96"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
@@ -3469,33 +3468,33 @@
         <f>ЭФ2!A2</f>
         <v>Объем продукции, производимой в час (тонн)</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18">
         <f>ЭФ2!$B2</f>
-        <v>136</v>
-      </c>
-      <c r="D13" s="19">
+        <v>50</v>
+      </c>
+      <c r="D13" s="18">
         <f>ЭФ2!$B2</f>
-        <v>136</v>
-      </c>
-      <c r="E13" s="19">
+        <v>50</v>
+      </c>
+      <c r="E13" s="18">
         <f>ЭФ2!$B2</f>
-        <v>136</v>
-      </c>
-      <c r="F13" s="19">
+        <v>50</v>
+      </c>
+      <c r="F13" s="18">
         <f>ЭФ2!$B2</f>
-        <v>136</v>
-      </c>
-      <c r="G13" s="19">
+        <v>50</v>
+      </c>
+      <c r="G13" s="18">
         <f>ЭФ2!$B2</f>
-        <v>136</v>
-      </c>
-      <c r="H13" s="19">
+        <v>50</v>
+      </c>
+      <c r="H13" s="18">
         <f>ЭФ2!$B2</f>
-        <v>136</v>
-      </c>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+        <v>50</v>
+      </c>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
@@ -3504,33 +3503,33 @@
         <f>ЭФ2!A3</f>
         <v>Цена реализации единицы продукции (руб./тонна)</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18">
         <f>ЭФ2!$B3*(1+$L$42)^C1</f>
         <v>65148.000000000007</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f>ЭФ2!$B3*(1+$L$42)^D1</f>
         <v>70737.698400000008</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="18">
         <f>ЭФ2!$B3*(1+$L$42)^E1</f>
         <v>76806.992922720019</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <f>ЭФ2!$B3*(1+$L$42)^F1</f>
         <v>83397.032915489413</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <f>ЭФ2!$B3*(1+$L$42)^G1</f>
         <v>90552.49833963842</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="18">
         <f>ЭФ2!$B3*(1+$L$42)^H1</f>
         <v>98321.902697179408</v>
       </c>
-      <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
@@ -3539,33 +3538,33 @@
         <f>ЭФ2!A6</f>
         <v>Суммарное время внеплановых простоев установки за год (в часах)</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18">
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="18">
         <f>ЭФ2!$B6</f>
         <v>10</v>
       </c>
-      <c r="I15" s="94"/>
-      <c r="J15" s="95"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="96"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
@@ -3574,33 +3573,33 @@
         <f>ЭФ2!A7</f>
         <v>Стоимость часа простоя установки</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18">
         <f>ЭФ2!$B7*(1+$L$42)^C1</f>
-        <v>8860128</v>
-      </c>
-      <c r="D16" s="19">
+        <v>3257400.0000000005</v>
+      </c>
+      <c r="D16" s="18">
         <f>ЭФ2!$B7*(1+$L$42)^D1</f>
-        <v>9620326.982400002</v>
-      </c>
-      <c r="E16" s="19">
+        <v>3536884.9200000009</v>
+      </c>
+      <c r="E16" s="18">
         <f>ЭФ2!$B7*(1+$L$42)^E1</f>
-        <v>10445751.037489923</v>
-      </c>
-      <c r="F16" s="19">
+        <v>3840349.6461360008</v>
+      </c>
+      <c r="F16" s="18">
         <f>ЭФ2!$B7*(1+$L$42)^F1</f>
-        <v>11341996.476506561</v>
-      </c>
-      <c r="G16" s="19">
+        <v>4169851.6457744706</v>
+      </c>
+      <c r="G16" s="18">
         <f>ЭФ2!$B7*(1+$L$42)^G1</f>
-        <v>12315139.774190824</v>
-      </c>
-      <c r="H16" s="19">
+        <v>4527624.9169819206</v>
+      </c>
+      <c r="H16" s="18">
         <f>ЭФ2!$B7*(1+$L$42)^H1</f>
-        <v>13371778.766816398</v>
-      </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="95"/>
+        <v>4916095.1348589705</v>
+      </c>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
     </row>
@@ -3609,67 +3608,67 @@
         <f>ЭФ2!A8</f>
         <v>Коэффициент снижения внеплановых простоев</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15">
+      <c r="B17" s="17"/>
+      <c r="C17" s="14">
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="14">
         <f>ЭФ2!$B8</f>
         <v>0.85</v>
       </c>
-      <c r="I17" s="94"/>
-      <c r="J17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="96"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="15.6">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15">
         <f>C19+C20-C21-C22</f>
         <v>9473605.0000000019</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f t="shared" ref="D18:H18" si="8">D19+D20-D21-D22</f>
         <v>10286440.309000002</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <f t="shared" si="8"/>
         <v>11169016.887512201</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <f t="shared" si="8"/>
         <v>12127318.536460754</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <f t="shared" si="8"/>
         <v>13167842.466889085</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <f t="shared" si="8"/>
         <v>14297643.350548172</v>
       </c>
-      <c r="I18" s="94"/>
-      <c r="J18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="96"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
@@ -3678,33 +3677,33 @@
         <f>ЭФ3!A2</f>
         <v>Стоимость комплекта вибродатчиков на 50 агрегатов</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="21">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20">
         <f>ЭФ3!$B2*(1+$L$42)^C1</f>
         <v>6786250.0000000009</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <f>ЭФ3!$B2*(1+$L$42)^D1</f>
         <v>7368510.2500000019</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f>ЭФ3!$B2*(1+$L$42)^E1</f>
         <v>8000728.4294500016</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="20">
         <f>ЭФ3!$B2*(1+$L$42)^F1</f>
         <v>8687190.9286968149</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="20">
         <f>ЭФ3!$B2*(1+$L$42)^G1</f>
         <v>9432551.9103790019</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="20">
         <f>ЭФ3!$B2*(1+$L$42)^H1</f>
         <v>10241864.86428952</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="96"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
     </row>
@@ -3713,33 +3712,33 @@
         <f>ЭФ3!A3</f>
         <v>Стоимость работ по монтажу, прокладке кабелей, интеграции в систему</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="21">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20">
         <f>ЭФ3!$B3*(1+$L$42)^C1</f>
         <v>3800300.0000000005</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f>ЭФ3!$B3*(1+$L$42)^D1</f>
         <v>4126365.7400000007</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f>ЭФ3!$B3*(1+$L$42)^E1</f>
         <v>4480407.9204920009</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="20">
         <f>ЭФ3!$B3*(1+$L$42)^F1</f>
         <v>4864826.9200702161</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="20">
         <f>ЭФ3!$B3*(1+$L$42)^G1</f>
         <v>5282229.069812241</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <f>ЭФ3!$B3*(1+$L$42)^H1</f>
         <v>5735444.3240021318</v>
       </c>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
@@ -3748,33 +3747,33 @@
         <f>ЭФ3!A5</f>
         <v>Стоимость датчиков тока (200 шт)</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21">
+      <c r="B21" s="19"/>
+      <c r="C21" s="20">
         <f>ЭФ3!$B5*(1+$L$42)^C1</f>
         <v>27145.000000000004</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="20">
         <f>ЭФ3!$B5*(1+$L$42)^D1</f>
         <v>29474.041000000005</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="20">
         <f>ЭФ3!$B5*(1+$L$42)^E1</f>
         <v>32002.913717800009</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="20">
         <f>ЭФ3!$B5*(1+$L$42)^F1</f>
         <v>34748.763714787259</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="20">
         <f>ЭФ3!$B5*(1+$L$42)^G1</f>
         <v>37730.207641516005</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="20">
         <f>ЭФ3!$B5*(1+$L$42)^H1</f>
         <v>40967.459457158082</v>
       </c>
-      <c r="I21" s="94"/>
-      <c r="J21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
     </row>
@@ -3783,67 +3782,67 @@
         <f>ЭФ3!A6</f>
         <v>Стоимость монтажа датчиков и подключения к системе сбора данных</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20">
         <f>ЭФ3!$B6*(1+$L$42)^C1</f>
         <v>1085800</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="20">
         <f>ЭФ3!$B6*(1+$L$42)^D1</f>
         <v>1178961.6400000004</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="20">
         <f>ЭФ3!$B6*(1+$L$42)^E1</f>
         <v>1280116.5487120003</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="20">
         <f>ЭФ3!$B6*(1+$L$42)^F1</f>
         <v>1389950.5485914904</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="20">
         <f>ЭФ3!$B6*(1+$L$42)^G1</f>
         <v>1509208.3056606401</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="20">
         <f>ЭФ3!$B6*(1+$L$42)^H1</f>
         <v>1638698.3782863233</v>
       </c>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="15.6">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:12">
+      <c r="A23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15">
         <f>(C24-C27)*C25*C26</f>
-        <v>6514800.0000000009</v>
-      </c>
-      <c r="D23" s="16">
+        <v>1954440.0000000002</v>
+      </c>
+      <c r="D23" s="15">
         <f t="shared" ref="D23:H23" si="9">(D24-D27)*D25*D26</f>
-        <v>7073769.8400000008</v>
-      </c>
-      <c r="E23" s="16">
+        <v>2122130.9520000005</v>
+      </c>
+      <c r="E23" s="15">
         <f t="shared" si="9"/>
-        <v>7680699.2922720024</v>
-      </c>
-      <c r="F23" s="16">
+        <v>2304209.7876816005</v>
+      </c>
+      <c r="F23" s="15">
         <f t="shared" si="9"/>
-        <v>8339703.2915489422</v>
-      </c>
-      <c r="G23" s="16">
+        <v>2501910.9874646827</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="9"/>
-        <v>9055249.8339638412</v>
-      </c>
-      <c r="H23" s="16">
+        <v>2716574.9501891523</v>
+      </c>
+      <c r="H23" s="15">
         <f t="shared" si="9"/>
-        <v>9832190.2697179392</v>
-      </c>
-      <c r="I23" s="94"/>
-      <c r="J23" s="95"/>
+        <v>2949657.0809153821</v>
+      </c>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
     </row>
@@ -3852,33 +3851,33 @@
         <f>ЭФ4!A2</f>
         <v>Среднее время на поиск и локализацию одной неисправности (в часах)</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19">
         <f>ЭФ4!$B2</f>
-        <v>4</v>
-      </c>
-      <c r="D24" s="20">
+        <v>5</v>
+      </c>
+      <c r="D24" s="19">
         <f>ЭФ4!$B2</f>
-        <v>4</v>
-      </c>
-      <c r="E24" s="20">
+        <v>5</v>
+      </c>
+      <c r="E24" s="19">
         <f>ЭФ4!$B2</f>
-        <v>4</v>
-      </c>
-      <c r="F24" s="20">
+        <v>5</v>
+      </c>
+      <c r="F24" s="19">
         <f>ЭФ4!$B2</f>
-        <v>4</v>
-      </c>
-      <c r="G24" s="20">
+        <v>5</v>
+      </c>
+      <c r="G24" s="19">
         <f>ЭФ4!$B2</f>
-        <v>4</v>
-      </c>
-      <c r="H24" s="20">
+        <v>5</v>
+      </c>
+      <c r="H24" s="19">
         <f>ЭФ4!$B2</f>
-        <v>4</v>
-      </c>
-      <c r="I24" s="94"/>
-      <c r="J24" s="95"/>
+        <v>5</v>
+      </c>
+      <c r="I24" s="95"/>
+      <c r="J24" s="96"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
@@ -3887,33 +3886,33 @@
         <f>ЭФ4!A3</f>
         <v>Среднее количество инцидентов (отказов), требующих диагностики, в год</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19">
         <f>ЭФ4!$B3</f>
-        <v>30</v>
-      </c>
-      <c r="D25" s="20">
+        <v>6</v>
+      </c>
+      <c r="D25" s="19">
         <f>ЭФ4!$B3</f>
-        <v>30</v>
-      </c>
-      <c r="E25" s="20">
+        <v>6</v>
+      </c>
+      <c r="E25" s="19">
         <f>ЭФ4!$B3</f>
-        <v>30</v>
-      </c>
-      <c r="F25" s="20">
+        <v>6</v>
+      </c>
+      <c r="F25" s="19">
         <f>ЭФ4!$B3</f>
-        <v>30</v>
-      </c>
-      <c r="G25" s="20">
+        <v>6</v>
+      </c>
+      <c r="G25" s="19">
         <f>ЭФ4!$B3</f>
-        <v>30</v>
-      </c>
-      <c r="H25" s="20">
+        <v>6</v>
+      </c>
+      <c r="H25" s="19">
         <f>ЭФ4!$B3</f>
-        <v>30</v>
-      </c>
-      <c r="I25" s="94"/>
-      <c r="J25" s="95"/>
+        <v>6</v>
+      </c>
+      <c r="I25" s="95"/>
+      <c r="J25" s="96"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
@@ -3922,33 +3921,33 @@
         <f>ЭФ4!A4</f>
         <v>Полная стоимость часа работы ремонтной бригады</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20">
         <f>ЭФ4!$B4*(1+$L$42)^C1</f>
         <v>108580.00000000001</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="20">
         <f>ЭФ4!$B4*(1+$L$42)^D1</f>
         <v>117896.16400000002</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <f>ЭФ4!$B4*(1+$L$42)^E1</f>
         <v>128011.65487120004</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <f>ЭФ4!$B4*(1+$L$42)^F1</f>
         <v>138995.05485914904</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="20">
         <f>ЭФ4!$B4*(1+$L$42)^G1</f>
         <v>150920.83056606402</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="20">
         <f>ЭФ4!$B4*(1+$L$42)^H1</f>
         <v>163869.83782863233</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="96"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
     </row>
@@ -3957,72 +3956,72 @@
         <f>ЭФ4!A5</f>
         <v>Среднее время на локализацию неисправности после внедрения системы</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19">
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="19">
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="19">
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="19">
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="19">
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="H27" s="20">
+      <c r="H27" s="19">
         <f>ЭФ4!$B5</f>
         <v>2</v>
       </c>
-      <c r="I27" s="96"/>
-      <c r="J27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="98"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <f>B29+B43</f>
-        <v>48883176</v>
-      </c>
-      <c r="C28" s="17">
+        <v>52622936</v>
+      </c>
+      <c r="C28" s="16">
         <f t="shared" ref="C28:H28" si="10">SUM(C29+C43)</f>
-        <v>9558833.8880000003</v>
-      </c>
-      <c r="D28" s="17">
+        <v>25602560.000000004</v>
+      </c>
+      <c r="D28" s="16">
         <f t="shared" si="10"/>
-        <v>10288788.875590403</v>
-      </c>
-      <c r="E28" s="17">
+        <v>27465792.800000004</v>
+      </c>
+      <c r="E28" s="16">
         <f t="shared" si="10"/>
-        <v>11081374.001116058</v>
-      </c>
-      <c r="F28" s="17">
+        <v>29488890.974240005</v>
+      </c>
+      <c r="F28" s="16">
         <f t="shared" si="10"/>
-        <v>11941962.930411819</v>
-      </c>
-      <c r="G28" s="17">
+        <v>31685570.971829806</v>
+      </c>
+      <c r="G28" s="16">
         <f t="shared" si="10"/>
-        <v>12876390.389841154</v>
-      </c>
-      <c r="H28" s="17">
+        <v>34070726.113212809</v>
+      </c>
+      <c r="H28" s="16">
         <f t="shared" si="10"/>
-        <v>13890991.725289527</v>
-      </c>
-      <c r="I28" s="100" t="s">
+        <v>36660527.565726466</v>
+      </c>
+      <c r="I28" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="101"/>
+      <c r="J28" s="102"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
@@ -4030,256 +4029,256 @@
       <c r="A29" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <f>B30+B41+B42</f>
-        <v>48883176</v>
-      </c>
-      <c r="C29" s="23">
+        <v>52622936</v>
+      </c>
+      <c r="C29" s="22">
         <f>C41</f>
         <v>0</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <f t="shared" ref="D29:G29" si="11">D41</f>
         <v>0</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F29" s="23">
+      <c r="F29" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G29" s="22">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <f t="shared" ref="H29" si="12">H41</f>
         <v>0</v>
       </c>
-      <c r="I29" s="102"/>
-      <c r="J29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="104"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="15.6">
+    <row r="30" spans="1:12">
       <c r="A30" s="9" t="str">
         <f>CAPEX!A2</f>
         <v>Стоиомсть команды для разработки ПО</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <f>CAPEX!B2</f>
         <v>40300800</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="104"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="15.6">
+    <row r="31" spans="1:12">
       <c r="A31" s="9" t="str">
         <f>'Стоимость команды'!A2</f>
         <v>Руководитель проекта</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <f>'Стоимость команды'!D2</f>
         <v>6144000</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="103"/>
+      <c r="J31" s="104"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="15.6">
+    <row r="32" spans="1:12">
       <c r="A32" s="9" t="str">
         <f>'Стоимость команды'!A3</f>
         <v>Системный аналитик</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <f>'Стоимость команды'!D3</f>
         <v>6336000</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="103"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="104"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="15.6">
+    <row r="33" spans="1:12">
       <c r="A33" s="9" t="str">
         <f>'Стоимость команды'!A4</f>
         <v>Бизнес аналитик</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <f>'Стоимость команды'!D4</f>
         <v>5068800</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="104"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="15.6">
+    <row r="34" spans="1:12">
       <c r="A34" s="9" t="str">
         <f>'Стоимость команды'!A5</f>
         <v>Frontend разработчик</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <f>'Стоимость команды'!D5</f>
         <v>4492800</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="103"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="15.6">
+    <row r="35" spans="1:12">
       <c r="A35" s="9" t="str">
         <f>'Стоимость команды'!A6</f>
         <v>Backend разработчик</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <f>'Стоимость команды'!D6</f>
         <v>4492800</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="103"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="15.6">
+    <row r="36" spans="1:12">
       <c r="A36" s="9" t="str">
         <f>'Стоимость команды'!A7</f>
         <v>ML разработчик</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <f>'Стоимость команды'!D7</f>
         <v>6912000</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="103"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="15.6">
+    <row r="37" spans="1:12">
       <c r="A37" s="9" t="str">
         <f>'Стоимость команды'!A8</f>
         <v>UX\UI дизайнер</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <f>'Стоимость команды'!D8</f>
         <v>2016000</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="103"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="15.6">
+    <row r="38" spans="1:12">
       <c r="A38" s="9" t="str">
         <f>'Стоимость команды'!A9</f>
         <v>Архитектор</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <f>'Стоимость команды'!D9</f>
         <v>2592000</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="102"/>
-      <c r="J38" s="103"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="15.6">
+    <row r="39" spans="1:12">
       <c r="A39" s="9" t="str">
         <f>'Стоимость команды'!A10</f>
         <v>DevOps инженер</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <f>'Стоимость команды'!D10</f>
         <v>2246400</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="88"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="89"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:12">
       <c r="A40" s="9" t="str">
         <f>CAPEX!A2</f>
         <v>Стоиомсть команды для разработки ПО</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <f>CAPEX!B2</f>
         <v>40300800</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="98"/>
-      <c r="J40" s="99"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="100"/>
       <c r="K40" s="10" t="s">
         <v>15</v>
       </c>
@@ -4287,23 +4286,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.6">
+    <row r="41" spans="1:12">
       <c r="A41" s="9" t="str">
         <f>CAPEX!A3</f>
         <v>Закупка инфраструктуры и лицензий</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <f>CAPEX!B3</f>
-        <v>7557376</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="98"/>
-      <c r="J41" s="99"/>
+        <v>11297136</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="100"/>
       <c r="K41" s="10" t="s">
         <v>15</v>
       </c>
@@ -4311,23 +4310,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6">
+    <row r="42" spans="1:12">
       <c r="A42" s="9" t="str">
         <f>CAPEX!A4</f>
         <v>Стоимость токовых датчиков, включая установку на оборудование (на 1 ед.)</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <f>CAPEX!B4</f>
         <v>1025000</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="98"/>
-      <c r="J42" s="99"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="100"/>
       <c r="K42" s="10" t="s">
         <v>102</v>
       </c>
@@ -4335,37 +4334,37 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.6">
+    <row r="43" spans="1:12">
       <c r="A43" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="23">
+      <c r="B43" s="23"/>
+      <c r="C43" s="22">
         <f>SUM(C44:C45)</f>
-        <v>9558833.8880000003</v>
-      </c>
-      <c r="D43" s="23">
+        <v>25602560.000000004</v>
+      </c>
+      <c r="D43" s="22">
         <f t="shared" ref="D43:H43" si="13">SUM(D44:D45)</f>
-        <v>10288788.875590403</v>
-      </c>
-      <c r="E43" s="23">
+        <v>27465792.800000004</v>
+      </c>
+      <c r="E43" s="22">
         <f t="shared" si="13"/>
-        <v>11081374.001116058</v>
-      </c>
-      <c r="F43" s="23">
+        <v>29488890.974240005</v>
+      </c>
+      <c r="F43" s="22">
         <f t="shared" si="13"/>
-        <v>11941962.930411819</v>
-      </c>
-      <c r="G43" s="23">
+        <v>31685570.971829806</v>
+      </c>
+      <c r="G43" s="22">
         <f t="shared" si="13"/>
-        <v>12876390.389841154</v>
-      </c>
-      <c r="H43" s="23">
+        <v>34070726.113212809</v>
+      </c>
+      <c r="H43" s="22">
         <f t="shared" si="13"/>
-        <v>13890991.725289527</v>
-      </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
+        <v>36660527.565726466</v>
+      </c>
+      <c r="I43" s="99"/>
+      <c r="J43" s="100"/>
       <c r="K43" s="10" t="s">
         <v>17</v>
       </c>
@@ -4378,33 +4377,33 @@
       <c r="A44" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18">
         <f>OPEX!$B$2*(1+$L$42)^C1</f>
-        <v>8507633.8880000003</v>
-      </c>
-      <c r="D44" s="19">
+        <v>21716000.000000004</v>
+      </c>
+      <c r="D44" s="18">
         <f>OPEX!$B$2*(1+$L$42)^D1</f>
-        <v>9237588.8755904026</v>
-      </c>
-      <c r="E44" s="19">
+        <v>23579232.800000004</v>
+      </c>
+      <c r="E44" s="18">
         <f>OPEX!$B$2*(1+$L$42)^E1</f>
-        <v>10030174.001116058</v>
-      </c>
-      <c r="F44" s="19">
+        <v>25602330.974240005</v>
+      </c>
+      <c r="F44" s="18">
         <f>OPEX!$B$2*(1+$L$42)^F1</f>
-        <v>10890762.930411819</v>
-      </c>
-      <c r="G44" s="19">
+        <v>27799010.971829806</v>
+      </c>
+      <c r="G44" s="18">
         <f>OPEX!$B$2*(1+$L$42)^G1</f>
-        <v>11825190.389841154</v>
-      </c>
-      <c r="H44" s="19">
+        <v>30184166.113212805</v>
+      </c>
+      <c r="H44" s="18">
         <f>OPEX!$B$2*(1+$L$42)^H1</f>
-        <v>12839791.725289527</v>
-      </c>
-      <c r="I44" s="98"/>
-      <c r="J44" s="99"/>
+        <v>32773967.565726466</v>
+      </c>
+      <c r="I44" s="99"/>
+      <c r="J44" s="100"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
     </row>
@@ -4413,33 +4412,33 @@
         <f>CAPEX!A3</f>
         <v>Закупка инфраструктуры и лицензий</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19">
+      <c r="B45" s="17"/>
+      <c r="C45" s="18">
         <f>OPEX!$B$3</f>
-        <v>1051200</v>
-      </c>
-      <c r="D45" s="19">
+        <v>3886560</v>
+      </c>
+      <c r="D45" s="18">
         <f>OPEX!$B$3</f>
-        <v>1051200</v>
-      </c>
-      <c r="E45" s="19">
+        <v>3886560</v>
+      </c>
+      <c r="E45" s="18">
         <f>OPEX!$B$3</f>
-        <v>1051200</v>
-      </c>
-      <c r="F45" s="19">
+        <v>3886560</v>
+      </c>
+      <c r="F45" s="18">
         <f>OPEX!$B$3</f>
-        <v>1051200</v>
-      </c>
-      <c r="G45" s="19">
+        <v>3886560</v>
+      </c>
+      <c r="G45" s="18">
         <f>OPEX!$B$3</f>
-        <v>1051200</v>
-      </c>
-      <c r="H45" s="19">
+        <v>3886560</v>
+      </c>
+      <c r="H45" s="18">
         <f>OPEX!$B$3</f>
-        <v>1051200</v>
-      </c>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
+        <v>3886560</v>
+      </c>
+      <c r="I45" s="65"/>
+      <c r="J45" s="66"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
     </row>
@@ -4447,47 +4446,47 @@
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="71">
+      <c r="B46" s="17"/>
+      <c r="C46" s="68">
         <f>B41/L41</f>
-        <v>755737.59999999998</v>
-      </c>
-      <c r="D46" s="71">
+        <v>1129713.6000000001</v>
+      </c>
+      <c r="D46" s="68">
         <f>C46</f>
-        <v>755737.59999999998</v>
-      </c>
-      <c r="E46" s="71">
+        <v>1129713.6000000001</v>
+      </c>
+      <c r="E46" s="68">
         <f t="shared" ref="E46:H46" si="14">D46</f>
-        <v>755737.59999999998</v>
-      </c>
-      <c r="F46" s="71">
+        <v>1129713.6000000001</v>
+      </c>
+      <c r="F46" s="68">
         <f t="shared" si="14"/>
-        <v>755737.59999999998</v>
-      </c>
-      <c r="G46" s="71">
+        <v>1129713.6000000001</v>
+      </c>
+      <c r="G46" s="68">
         <f t="shared" si="14"/>
-        <v>755737.59999999998</v>
-      </c>
-      <c r="H46" s="71">
+        <v>1129713.6000000001</v>
+      </c>
+      <c r="H46" s="68">
         <f t="shared" si="14"/>
-        <v>755737.59999999998</v>
-      </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="69"/>
+        <v>1129713.6000000001</v>
+      </c>
+      <c r="I46" s="65"/>
+      <c r="J46" s="66"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="6"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="89"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
     </row>
@@ -4495,64 +4494,64 @@
       <c r="A48" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="19">
+      <c r="B48" s="24"/>
+      <c r="C48" s="18">
         <f t="shared" ref="C48:H48" si="15">C2-C28</f>
-        <v>124331155.9685</v>
-      </c>
-      <c r="D48" s="19">
+        <v>30346216.117099997</v>
+      </c>
+      <c r="D48" s="18">
         <f t="shared" si="15"/>
-        <v>135088962.11059731</v>
-      </c>
-      <c r="E48" s="19">
+        <v>33283388.307947189</v>
+      </c>
+      <c r="E48" s="18">
         <f t="shared" si="15"/>
-        <v>146769788.01968658</v>
-      </c>
-      <c r="F48" s="19">
+        <v>36472569.872769058</v>
+      </c>
+      <c r="F48" s="18">
         <f t="shared" si="15"/>
-        <v>159452828.79177573</v>
-      </c>
-      <c r="G48" s="19">
+        <v>39935383.215852663</v>
+      </c>
+      <c r="G48" s="18">
         <f t="shared" si="15"/>
-        <v>173224074.4621101</v>
-      </c>
-      <c r="H48" s="19">
+        <v>43695305.943772808</v>
+      </c>
+      <c r="H48" s="18">
         <f t="shared" si="15"/>
-        <v>188176893.01095918</v>
-      </c>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
+        <v>47777830.041748531</v>
+      </c>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="15.6">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:12">
+      <c r="A49" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="27">
+      <c r="B49" s="86"/>
+      <c r="C49" s="87">
         <f>C48*0.2</f>
-        <v>24866231.193700001</v>
-      </c>
-      <c r="D49" s="27">
+        <v>6069243.2234199997</v>
+      </c>
+      <c r="D49" s="87">
         <f t="shared" ref="D49:G49" si="16">D48*0.2</f>
-        <v>27017792.422119465</v>
-      </c>
-      <c r="E49" s="27">
+        <v>6656677.6615894381</v>
+      </c>
+      <c r="E49" s="87">
         <f t="shared" si="16"/>
-        <v>29353957.603937317</v>
-      </c>
-      <c r="F49" s="27">
+        <v>7294513.9745538123</v>
+      </c>
+      <c r="F49" s="87">
         <f t="shared" si="16"/>
-        <v>31890565.758355148</v>
-      </c>
-      <c r="G49" s="27">
+        <v>7987076.6431705328</v>
+      </c>
+      <c r="G49" s="87">
         <f t="shared" si="16"/>
-        <v>34644814.89242202</v>
-      </c>
-      <c r="H49" s="27">
+        <v>8739061.1887545623</v>
+      </c>
+      <c r="H49" s="87">
         <f t="shared" ref="H49" si="17">H48*0.2</f>
-        <v>37635378.602191836</v>
+        <v>9555566.0083497074</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4563,30 +4562,30 @@
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18">
         <f>C48-C49-C46</f>
-        <v>98709187.174800009</v>
-      </c>
-      <c r="D50" s="19">
+        <v>23147259.293679997</v>
+      </c>
+      <c r="D50" s="18">
         <f t="shared" ref="D50:H50" si="18">D48-D49-D46</f>
-        <v>107315432.08847785</v>
-      </c>
-      <c r="E50" s="19">
+        <v>25496997.046357751</v>
+      </c>
+      <c r="E50" s="18">
         <f t="shared" si="18"/>
-        <v>116660092.81574927</v>
-      </c>
-      <c r="F50" s="19">
+        <v>28048342.298215244</v>
+      </c>
+      <c r="F50" s="18">
         <f t="shared" si="18"/>
-        <v>126806525.4334206</v>
-      </c>
-      <c r="G50" s="19">
+        <v>30818592.97268213</v>
+      </c>
+      <c r="G50" s="18">
         <f t="shared" si="18"/>
-        <v>137823521.96968809</v>
-      </c>
-      <c r="H50" s="19">
+        <v>33826531.155018248</v>
+      </c>
+      <c r="H50" s="18">
         <f t="shared" si="18"/>
-        <v>149785776.80876735</v>
+        <v>37092550.43339882</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -4597,33 +4596,33 @@
       <c r="A51" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="24">
         <f>-B29</f>
-        <v>-48883176</v>
-      </c>
-      <c r="C51" s="19">
+        <v>-52622936</v>
+      </c>
+      <c r="C51" s="18">
         <f>C50</f>
-        <v>98709187.174800009</v>
-      </c>
-      <c r="D51" s="19">
+        <v>23147259.293679997</v>
+      </c>
+      <c r="D51" s="18">
         <f t="shared" ref="D51:G51" si="19">D50</f>
-        <v>107315432.08847785</v>
-      </c>
-      <c r="E51" s="19">
+        <v>25496997.046357751</v>
+      </c>
+      <c r="E51" s="18">
         <f t="shared" si="19"/>
-        <v>116660092.81574927</v>
-      </c>
-      <c r="F51" s="19">
+        <v>28048342.298215244</v>
+      </c>
+      <c r="F51" s="18">
         <f t="shared" si="19"/>
-        <v>126806525.4334206</v>
-      </c>
-      <c r="G51" s="19">
+        <v>30818592.97268213</v>
+      </c>
+      <c r="G51" s="18">
         <f t="shared" si="19"/>
-        <v>137823521.96968809</v>
-      </c>
-      <c r="H51" s="19">
+        <v>33826531.155018248</v>
+      </c>
+      <c r="H51" s="18">
         <f t="shared" ref="H51" si="20">H50</f>
-        <v>149785776.80876735</v>
+        <v>37092550.43339882</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -4634,70 +4633,70 @@
       <c r="A52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="18">
+      <c r="B52" s="17">
         <f t="shared" ref="B52:H52" si="21">B51/(1+$L$43)^B1</f>
-        <v>-48883176</v>
-      </c>
-      <c r="C52" s="19">
+        <v>-52622936</v>
+      </c>
+      <c r="C52" s="18">
         <f t="shared" si="21"/>
-        <v>85094126.874827579</v>
-      </c>
-      <c r="D52" s="19">
+        <v>19954533.873862065</v>
+      </c>
+      <c r="D52" s="18">
         <f t="shared" si="21"/>
-        <v>79752847.86599125</v>
-      </c>
-      <c r="E52" s="19">
+        <v>18948422.299611878</v>
+      </c>
+      <c r="E52" s="18">
         <f t="shared" si="21"/>
-        <v>74739183.658455938</v>
-      </c>
-      <c r="F52" s="19">
+        <v>17969385.723466031</v>
+      </c>
+      <c r="F52" s="18">
         <f t="shared" si="21"/>
-        <v>70034115.150032163</v>
-      </c>
-      <c r="G52" s="19">
+        <v>17020834.548014086</v>
+      </c>
+      <c r="G52" s="18">
         <f t="shared" si="21"/>
-        <v>65619572.639993712</v>
-      </c>
-      <c r="H52" s="19">
+        <v>16105251.749218186</v>
+      </c>
+      <c r="H52" s="18">
         <f t="shared" si="21"/>
-        <v>61478411.950500734</v>
+        <v>15224350.031249028</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="15.6">
+    <row r="53" spans="1:12">
       <c r="A53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="18">
+      <c r="B53" s="17">
         <f>B52</f>
-        <v>-48883176</v>
-      </c>
-      <c r="C53" s="19">
+        <v>-52622936</v>
+      </c>
+      <c r="C53" s="18">
         <f>B53+C52</f>
-        <v>36210950.874827579</v>
-      </c>
-      <c r="D53" s="19">
+        <v>-32668402.126137935</v>
+      </c>
+      <c r="D53" s="18">
         <f t="shared" ref="D53:H53" si="22">C53+D52</f>
-        <v>115963798.74081883</v>
-      </c>
-      <c r="E53" s="19">
+        <v>-13719979.826526057</v>
+      </c>
+      <c r="E53" s="18">
         <f t="shared" si="22"/>
-        <v>190702982.39927477</v>
-      </c>
-      <c r="F53" s="19">
+        <v>4249405.8969399743</v>
+      </c>
+      <c r="F53" s="18">
         <f t="shared" si="22"/>
-        <v>260737097.54930693</v>
-      </c>
-      <c r="G53" s="27">
+        <v>21270240.44495406</v>
+      </c>
+      <c r="G53" s="25">
         <f t="shared" si="22"/>
-        <v>326356670.18930066</v>
-      </c>
-      <c r="H53" s="27">
+        <v>37375492.194172248</v>
+      </c>
+      <c r="H53" s="25">
         <f t="shared" si="22"/>
-        <v>387835082.13980138</v>
+        <v>52599842.22542128</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -4708,53 +4707,53 @@
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57" s="106">
         <f>G53</f>
-        <v>326356670.18930066</v>
+        <v>37375492.194172248</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B58" s="70">
+      <c r="B58" s="67">
         <f>1+B57/B28</f>
-        <v>7.6762574958161611</v>
+        <v>1.7102509862652333</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="66">
+      <c r="B59" s="63">
         <f>IRR(B51:G51)</f>
-        <v>2.0956416430945266</v>
+        <v>0.41522097278041925</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="67">
+      <c r="B60" s="64">
         <f>B28/C50</f>
-        <v>0.4952241771926944</v>
+        <v>2.2733981303077155</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="67">
-        <v>6</v>
+      <c r="B61" s="64">
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="26" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="4">
-        <f>((C50-B28)/B28)*100%</f>
-        <v>1.0192875187733303</v>
+        <f>((H53-B30)/B28)*100%</f>
+        <v>0.23372018287655558</v>
       </c>
     </row>
   </sheetData>
@@ -4779,131 +4778,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="41.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" customWidth="1"/>
-    <col min="8" max="8" width="36.6328125" customWidth="1"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="35">
         <f>'Стоимость команды'!B17</f>
         <v>40300800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="63">
-        <f>249164+13400 + 538800*3 + (622908*9) + 1806000*2/50</f>
-        <v>7557376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="60">
+        <f>249164+13400+(538800*3)+(622908*9)+(1806000*2)+200000</f>
+        <v>11297136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30.75">
+      <c r="A4" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="35">
         <f>ЭФ3!B6+ЭФ3!B5</f>
         <v>1025000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="38.1" customHeight="1"/>
-    <row r="6" spans="1:8" ht="15.6">
-      <c r="A6" s="34" t="s">
+    <row r="5" spans="1:7" ht="38.1" customHeight="1"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" ht="60">
-      <c r="A8" s="35" t="s">
+      <c r="C7" s="69"/>
+      <c r="D7" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+    </row>
+    <row r="8" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="35" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" customHeight="1">
-      <c r="H13" s="104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="H14" s="104"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="H15" s="104"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H17" s="104"/>
-    </row>
-    <row r="18" spans="8:8" ht="15.75" customHeight="1">
-      <c r="H18" s="104"/>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="104"/>
-    </row>
-    <row r="20" spans="8:8">
-      <c r="H20" s="104"/>
-    </row>
-    <row r="21" spans="8:8">
-      <c r="H21" s="104"/>
-    </row>
-    <row r="22" spans="8:8">
-      <c r="H22" s="104"/>
-    </row>
-    <row r="23" spans="8:8">
-      <c r="H23" s="104"/>
-    </row>
-    <row r="24" spans="8:8">
-      <c r="H24" s="104"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" customHeight="1">
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+    </row>
+    <row r="17" spans="4:7" ht="15.75" customHeight="1">
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+    </row>
+    <row r="18" spans="4:7" ht="15.75" customHeight="1">
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H13:H24"/>
+    <mergeCell ref="D7:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4915,25 +4942,25 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="31.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="91" customWidth="1"/>
-    <col min="11" max="11" width="40.36328125" customWidth="1"/>
+    <col min="11" max="11" width="40.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D1" s="5"/>
@@ -4949,14 +4976,13 @@
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="30">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="37">
-        <f>5000000+945120*3</f>
-        <v>7835360</v>
-      </c>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="35">
+        <v>20000000</v>
+      </c>
+      <c r="C2" s="77" t="s">
         <v>97</v>
       </c>
       <c r="D2" s="5"/>
@@ -4966,14 +4992,14 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="80">
-        <f>87600*12</f>
-        <v>1051200</v>
-      </c>
-      <c r="C3" s="82" t="s">
+      <c r="B3" s="76">
+        <f>87600*12+945120*3</f>
+        <v>3886560</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="5"/>
@@ -4984,31 +5010,31 @@
     </row>
     <row r="5" spans="1:14" ht="84" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="F5" s="74"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6">
-      <c r="A6" s="77" t="s">
+      <c r="F5" s="70"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="75"/>
-    </row>
-    <row r="7" spans="1:14" ht="120">
-      <c r="A7" s="78" t="s">
+      <c r="F6" s="71"/>
+    </row>
+    <row r="7" spans="1:14" ht="126">
+      <c r="A7" s="74" t="s">
         <v>114</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="76"/>
-    </row>
-    <row r="8" spans="1:14" ht="30">
-      <c r="A8" s="78" t="s">
+      <c r="C7" s="72"/>
+    </row>
+    <row r="8" spans="1:14" ht="31.5">
+      <c r="A8" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="75" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5026,179 +5052,179 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="D8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="27" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="50">
         <v>0.8</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="43">
         <v>4000</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="43">
         <f>C2*B2*8*20*12</f>
         <v>6144000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="50">
         <v>1</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="43">
         <v>3300</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="43">
         <f t="shared" ref="D3:D10" si="0">C3*B3*8*20*12</f>
         <v>6336000</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="50">
         <v>0.8</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="43">
         <v>3300</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="43">
         <f t="shared" si="0"/>
         <v>5068800</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>0.6</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>3900</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="43">
         <f t="shared" si="0"/>
         <v>4492800</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="50">
         <v>0.6</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="43">
         <v>3900</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <f t="shared" si="0"/>
         <v>4492800</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="50">
         <v>0.8</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="43">
         <v>4500</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="43">
         <f t="shared" si="0"/>
         <v>6912000</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="50">
         <v>0.3</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>3500</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="43">
         <f t="shared" si="0"/>
         <v>2016000</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="50">
         <v>0.3</v>
       </c>
-      <c r="C9" s="45">
+      <c r="C9" s="43">
         <v>4500</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="43">
         <f t="shared" si="0"/>
         <v>2592000</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="50">
         <v>0.3</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="43">
         <v>3900</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <f t="shared" si="0"/>
         <v>2246400</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="29">
         <f>SUM(D2:D10)</f>
         <v>40300800</v>
       </c>
@@ -5217,105 +5243,105 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="55">
-        <v>15</v>
+      <c r="B2" s="52">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="44">
         <v>489745</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="52">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="56">
-        <v>517345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30">
-      <c r="A6" s="39" t="s">
+      <c r="B5" s="53">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30.75">
+      <c r="A6" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="54">
         <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="52"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="52">
         <f>B2*B6</f>
-        <v>12.75</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="44">
         <f>B8*B3</f>
-        <v>6244248.75</v>
+        <v>2497699.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="53">
         <f>B8*B4*B5</f>
-        <v>32980743.75</v>
+        <v>13005000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="52"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="44">
         <f>B9+B10</f>
-        <v>39224992.5</v>
+        <v>15502699.5</v>
       </c>
     </row>
   </sheetData>
@@ -5333,99 +5359,99 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="42.453125" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="61.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="61.6640625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" ht="31.5">
+      <c r="A1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="52">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="48">
         <v>60000</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="7.5" hidden="1" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="36"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.6">
-      <c r="A5" s="34" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="34"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="47" t="s">
         <v>49</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:8" ht="30.75">
+      <c r="A6" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="50">
         <v>10</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="43">
         <f>B2*B3</f>
-        <v>8160000</v>
+        <v>3000000</v>
       </c>
       <c r="C7" s="1"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="51">
         <v>0.85</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="38"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="50"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="38"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="50"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="43">
         <f>B6*B7*B8</f>
-        <v>69360000</v>
+        <v>25500000</v>
       </c>
       <c r="C11" s="1"/>
     </row>
@@ -5447,89 +5473,89 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="74"/>
-    </row>
-    <row r="2" spans="1:4" ht="30">
-      <c r="A2" s="35" t="s">
+      <c r="C1" s="81"/>
+    </row>
+    <row r="2" spans="1:4" ht="30.75">
+      <c r="A2" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="59">
         <f>50*125000</f>
         <v>6250000</v>
       </c>
-      <c r="C2" s="83"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="30">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:4" ht="30.75">
+      <c r="A3" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="62">
+      <c r="B3" s="59">
         <f>50*70000</f>
         <v>3500000</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="83"/>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="85"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="84"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="59">
         <f>500*50</f>
         <v>25000</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:4" ht="30.75">
+      <c r="A6" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="59">
         <f>20000*50</f>
         <v>1000000</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="84"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" hidden="1">
-      <c r="A7" s="30"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="86"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="84"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="59">
         <f>B2+B3-B6-B5</f>
         <v>8725000</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="84"/>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
@@ -5616,66 +5642,66 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="40.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30.75">
+      <c r="A3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="35" t="s">
+      <c r="B3" s="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="43">
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" hidden="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="53"/>
-    </row>
-    <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="49" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="50"/>
+    </row>
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="43">
         <f>(B2-B5)*B3*B4</f>
-        <v>6000000</v>
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
@@ -5695,173 +5721,173 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="42.54296875" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="41.6328125" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="55">
         <v>1</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:3" ht="30.75">
+      <c r="A3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="56">
         <v>5.5E-2</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:3" ht="30.75">
+      <c r="A4" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="57">
         <v>1.2</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="33" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="55">
         <v>0.16600000000000001</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="33" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:3" ht="30.75">
+      <c r="A6" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <v>0.105</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:3" ht="30.75">
+      <c r="A7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <v>0.35</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="33" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="39">
         <v>0.2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:3" ht="30.75">
+      <c r="A9" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="39">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C9" s="30"/>
-    </row>
-    <row r="10" spans="1:3" ht="45">
-      <c r="A10" s="30" t="s">
+      <c r="C9" s="28"/>
+    </row>
+    <row r="10" spans="1:3" ht="45.75">
+      <c r="A10" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <v>0.01</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:3" ht="45.75">
+      <c r="A11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:3" ht="45.75">
+      <c r="A12" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="58">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:3" ht="45.75">
+      <c r="A13" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="39">
         <v>0</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="33" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:3" ht="45.75">
+      <c r="A14" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <v>0</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="33" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="61">
         <v>0.16000000000000003</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
